--- a/biology/Botanique/Laminariacées/Laminariacées.xlsx
+++ b/biology/Botanique/Laminariacées/Laminariacées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laminariac%C3%A9es</t>
+          <t>Laminariacées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Laminariaceae sont une famille d’algues brunes de l’ordre des Laminariales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laminariac%C3%A9es</t>
+          <t>Laminariacées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Laminaria, dérivé du latin lamina, lame, en référence à la forme des frondes de l'algue.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laminariac%C3%A9es</t>
+          <t>Laminariacées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 août 2017) :
 Arthrothamnus Ruprecht
 Cymathere J.Agardh
 Laminaria J.V.Lamouroux
@@ -557,9 +573,9 @@
 Saccharina Stackhouse
 Streptophyllopsis Kajimura
 Tauya N.G.Klochkova &amp; T.N.Krupnova
-Selon Catalogue of Life                                   (23 août 2017)[2] :
+Selon Catalogue of Life                                   (23 août 2017) :
 Laminaria
-Selon ITIS      (23 août 2017)[3] :
+Selon ITIS      (23 août 2017) :
 Agarum
 Coilodesme
 Costaria
@@ -572,7 +588,7 @@
 Pleurophycus
 Saccorhiza Bach. Pyl.
 Thalassiphyllum
-Selon World Register of Marine Species                               (23 août 2017)[4] :
+Selon World Register of Marine Species                               (23 août 2017) :
 Arthrothamnus Ruprecht, 1848
 Costulariella N.G.Kloczcova &amp; T.A.Kloczcova, 2010
 Cymathaere J.Agardh, 1868
